--- a/data/outputs/management_elsevier/80.xlsx
+++ b/data/outputs/management_elsevier/80.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS40"/>
+  <dimension ref="A1:BU40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -923,6 +933,12 @@
           <t>2-s2.0-84952716474</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>473</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1124,6 +1140,12 @@
           <t>2-s2.0-84952714627</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2584</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1327,6 +1349,12 @@
           <t>2-s2.0-84952717970</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>2793</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1536,6 +1564,12 @@
           <t>2-s2.0-84952717827</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1563</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1750,6 +1784,12 @@
         <is>
           <t>2-s2.0-84952719737</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>1699</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1958,6 +1998,12 @@
           <t>2-s2.0-84952670444</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>8490</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2170,6 +2216,12 @@
         <is>
           <t>2-s2.0-84952718835</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>1525</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2372,6 +2424,12 @@
           <t>2-s2.0-84952716261</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1452</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2573,6 +2631,12 @@
           <t>2-s2.0-84952715779</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1810</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2780,6 +2844,12 @@
           <t>2-s2.0-84952716610</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>8799</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2990,6 +3060,12 @@
         <is>
           <t>2-s2.0-84941314648</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>3702</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -3188,6 +3264,12 @@
           <t>2-s2.0-84941314914</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>2013</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3393,6 +3475,12 @@
           <t>2-s2.0-84941316241</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>4296</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3595,6 +3683,12 @@
         <is>
           <t>2-s2.0-84941317655</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>7109</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3795,6 +3889,12 @@
           <t>2-s2.0-84941317620</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1903</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3992,6 +4092,12 @@
           <t>2-s2.0-84941314873</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>997</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4200,6 +4306,12 @@
         <is>
           <t>2-s2.0-84941316169</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>972</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4398,6 +4510,12 @@
           <t>2-s2.0-84941314764</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>938</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4606,6 +4724,12 @@
         <is>
           <t>2-s2.0-84941316054</t>
         </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>1524</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -4810,6 +4934,12 @@
           <t>2-s2.0-84941315921</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>37753</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5019,6 +5149,12 @@
           <t>2-s2.0-84930178954</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>2466</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5222,6 +5358,12 @@
           <t>2-s2.0-84930183144</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>35388</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5425,6 +5567,12 @@
           <t>2-s2.0-84930180246</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1858</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5628,6 +5776,12 @@
           <t>2-s2.0-84930182845</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1491</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5829,6 +5983,12 @@
           <t>2-s2.0-84930181753</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>4219</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6030,6 +6190,12 @@
           <t>2-s2.0-84930179249</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>774</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6231,6 +6397,12 @@
           <t>2-s2.0-84930180082</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1788</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6434,6 +6606,12 @@
           <t>2-s2.0-84930180289</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>3065</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6643,6 +6821,12 @@
           <t>2-s2.0-84930180877</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1180</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6848,6 +7032,12 @@
           <t>2-s2.0-84930181986</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>6337</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7041,6 +7231,12 @@
           <t>2-s2.0-84924610130</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2361</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7246,6 +7442,12 @@
           <t>2-s2.0-84924539962</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>3755</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7453,6 +7655,12 @@
           <t>2-s2.0-84924530164</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>2602</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7667,6 +7875,12 @@
         <is>
           <t>2-s2.0-84924628474</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>2698</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -7869,6 +8083,12 @@
           <t>2-s2.0-84924617277</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>2230</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8074,6 +8294,12 @@
           <t>2-s2.0-84924589206</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>5226</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8286,6 +8512,12 @@
         <is>
           <t>2-s2.0-84924569949</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>1553</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -8490,6 +8722,12 @@
           <t>2-s2.0-84924528193</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>3157</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8709,6 +8947,12 @@
           <t>2-s2.0-84924528177</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>3028</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
